--- a/biology/Histoire de la zoologie et de la botanique/Edward_L._Mockford/Edward_L._Mockford.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_L._Mockford/Edward_L._Mockford.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward L. Mockford (né le 16 juin 1930) est un entomologiste américain.
 Il a écrit de nombreux articles scientifiques, notamment sur les insectes de l'ordre des psocoptères.
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) A Brief Account of the Life of the Late Dr.Kathryn Sommerman. by Edward L. Mockford (Illinois State University, USA) (publié dans Psocid News, volume 2).
 (en) E.L. Mockford, 1969, « The genus Caecilius (Psocoptera: Caeciliidae) Part III. The North American species of the alcinus, caligonus, and subflavus groups ». Transactions of the American Entomological Society.
